--- a/informes/punteados.xlsx
+++ b/informes/punteados.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +524,972 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4037753</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Creación Anticipo 409099909/1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2665.29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2665.29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>409099909/1</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4038810</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Creación Anticipo 409103089/1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2615.42</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5280.71</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>409103089/1</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4039117</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409099909/1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2665.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2615.42</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Ana P</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>409099909/1</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4040429</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409103089/1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2448.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-166.69</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>MIREA93</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>409103089/1</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4040430</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409103089/1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>166.69</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>MIREA93</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>409103089/1</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4040707</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Creación Anticipo 409108164/1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2653.64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-2653.64</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>409108164/1</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4040708</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Creación Anticipo 409108165/1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>313.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2967.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>409108165/1</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4040969</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409108165/1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>164.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2803.12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M.Jose</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>409108165/1</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4041355</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409108164/1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>545.37</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-2257.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Ana P</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>409108164/1</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4041906</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409108165/1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>149.48</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-2108.27</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Ana P</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>409108165/1</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4042137</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409108164/1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1642.72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-827.49</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>MIREA93</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>409108164/1</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4045143</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Creación Anticipo 409120147/1</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>370.19</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-835.74</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>409120147/1</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4046012</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409120147/1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>370.19</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-465.55</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Ana P</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>409120147/1</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4046527</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Compensación Anticipo 409108164/1</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4824</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>IMEDISA ARTES GRAFICAS, S.L.U.</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>465.55</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>MIREA93</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>438004824</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>409108164/1</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
